--- a/server/excel/skill.xlsx
+++ b/server/excel/skill.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>skillId</t>
   </si>
@@ -157,6 +157,10 @@
   </si>
   <si>
     <t>火箭</t>
+  </si>
+  <si>
+    <t>hitDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -520,15 +524,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,8 +548,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -559,10 +566,13 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -576,10 +586,13 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -593,10 +606,13 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -610,10 +626,13 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -627,10 +646,13 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -644,10 +666,13 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -661,10 +686,13 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -678,10 +706,13 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -695,10 +726,13 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -712,10 +746,13 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -729,10 +766,13 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -746,10 +786,13 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -763,10 +806,13 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -780,10 +826,13 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -797,10 +846,13 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -814,10 +866,13 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -831,10 +886,13 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -848,10 +906,13 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -865,10 +926,13 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -882,10 +946,13 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -899,10 +966,13 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -916,10 +986,13 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -933,10 +1006,13 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -950,10 +1026,13 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -967,10 +1046,13 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -984,10 +1066,13 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1001,10 +1086,13 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1018,10 +1106,13 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1035,10 +1126,13 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1052,10 +1146,13 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1069,10 +1166,13 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1086,10 +1186,13 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1103,10 +1206,13 @@
         <v>2</v>
       </c>
       <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1120,10 +1226,13 @@
         <v>2</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1137,10 +1246,13 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1154,10 +1266,13 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1171,10 +1286,13 @@
         <v>2</v>
       </c>
       <c r="E38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1188,10 +1306,13 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1205,10 +1326,13 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1222,10 +1346,13 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1239,7 +1366,10 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
